--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Quarterly Results of Bartronics India(in Rs. Cr.)</t>
   </si>
@@ -215,6 +215,138 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>11.23</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>7.24</t>
+  </si>
+  <si>
+    <t>8.21</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>14.13</t>
+  </si>
+  <si>
+    <t>16.57</t>
+  </si>
+  <si>
+    <t>17.85</t>
+  </si>
+  <si>
+    <t>19.87</t>
+  </si>
+  <si>
+    <t>18.31</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>15.74</t>
+  </si>
+  <si>
+    <t>17.32</t>
+  </si>
+  <si>
+    <t>18.90</t>
+  </si>
+  <si>
+    <t>12.98</t>
+  </si>
+  <si>
+    <t>20.74</t>
+  </si>
+  <si>
+    <t>18.72</t>
+  </si>
+  <si>
+    <t>19.56</t>
+  </si>
+  <si>
+    <t>21.52</t>
+  </si>
+  <si>
+    <t>17.95</t>
+  </si>
+  <si>
+    <t>13.13</t>
+  </si>
+  <si>
+    <t>15.41</t>
+  </si>
+  <si>
+    <t>14.39</t>
+  </si>
+  <si>
+    <t>15.33</t>
+  </si>
+  <si>
+    <t>18.20</t>
+  </si>
+  <si>
+    <t>14.82</t>
+  </si>
+  <si>
+    <t>16.22</t>
+  </si>
+  <si>
+    <t>16.29</t>
+  </si>
+  <si>
+    <t>18.23</t>
+  </si>
+  <si>
+    <t>15.37</t>
+  </si>
+  <si>
+    <t>13.73</t>
+  </si>
+  <si>
+    <t>11.47</t>
+  </si>
+  <si>
+    <t>12.05</t>
+  </si>
+  <si>
+    <t>12.07</t>
+  </si>
+  <si>
+    <t>12.43</t>
+  </si>
+  <si>
+    <t>11.92</t>
+  </si>
+  <si>
+    <t>12.41</t>
+  </si>
+  <si>
+    <t>13.57</t>
+  </si>
+  <si>
+    <t>8.85</t>
   </si>
 </sst>
 </file>
@@ -650,8 +782,8 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>1.79</v>
+      <c r="B2" t="s">
+        <v>67</v>
       </c>
       <c r="C2">
         <v>1.79</v>
@@ -718,8 +850,8 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>4.42</v>
+      <c r="B3" t="s">
+        <v>68</v>
       </c>
       <c r="C3">
         <v>4.42</v>
@@ -728,7 +860,7 @@
         <v>1.08</v>
       </c>
       <c r="E3">
-        <v>0.2413953488372093</v>
+        <v>0.24</v>
       </c>
       <c r="F3">
         <v>1.18</v>
@@ -786,8 +918,8 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>5.47</v>
+      <c r="B4" t="s">
+        <v>69</v>
       </c>
       <c r="C4">
         <v>5.47</v>
@@ -854,8 +986,8 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>11.23</v>
+      <c r="B5" t="s">
+        <v>70</v>
       </c>
       <c r="C5">
         <v>11.23</v>
@@ -922,8 +1054,8 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>5.18</v>
+      <c r="B6" t="s">
+        <v>71</v>
       </c>
       <c r="C6">
         <v>5.18</v>
@@ -990,8 +1122,8 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>4.01</v>
+      <c r="B7" t="s">
+        <v>72</v>
       </c>
       <c r="C7">
         <v>4.01</v>
@@ -1042,24 +1174,24 @@
         <v>34.05</v>
       </c>
       <c r="S7">
-        <v>-2.604186046511628</v>
+        <v>-2.6</v>
       </c>
       <c r="T7">
-        <v>-2.576904761904762</v>
+        <v>-2.58</v>
       </c>
       <c r="U7">
-        <v>-2.631190476190476</v>
+        <v>-2.63</v>
       </c>
       <c r="V7">
-        <v>-2.576904761904762</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>6.18</v>
+      <c r="B8" t="s">
+        <v>73</v>
       </c>
       <c r="C8">
         <v>6.18</v>
@@ -1126,8 +1258,8 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>7.24</v>
+      <c r="B9" t="s">
+        <v>74</v>
       </c>
       <c r="C9">
         <v>7.24</v>
@@ -1194,8 +1326,8 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
-        <v>8.210000000000001</v>
+      <c r="B10" t="s">
+        <v>75</v>
       </c>
       <c r="C10">
         <v>8.210000000000001</v>
@@ -1262,8 +1394,8 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>9.4</v>
+      <c r="B11" t="s">
+        <v>76</v>
       </c>
       <c r="C11">
         <v>9.4</v>
@@ -1330,8 +1462,8 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>11.23</v>
+      <c r="B12" t="s">
+        <v>70</v>
       </c>
       <c r="C12">
         <v>11.23</v>
@@ -1398,8 +1530,8 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
-        <v>14.13</v>
+      <c r="B13" t="s">
+        <v>77</v>
       </c>
       <c r="C13">
         <v>14.13</v>
@@ -1466,8 +1598,8 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>16.57</v>
+      <c r="B14" t="s">
+        <v>78</v>
       </c>
       <c r="C14">
         <v>16.57</v>
@@ -1534,8 +1666,8 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
-        <v>17.85</v>
+      <c r="B15" t="s">
+        <v>79</v>
       </c>
       <c r="C15">
         <v>17.85</v>
@@ -1602,8 +1734,8 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>19.87</v>
+      <c r="B16" t="s">
+        <v>80</v>
       </c>
       <c r="C16">
         <v>19.87</v>
@@ -1670,8 +1802,8 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17">
-        <v>18.31</v>
+      <c r="B17" t="s">
+        <v>81</v>
       </c>
       <c r="C17">
         <v>18.31</v>
@@ -1738,8 +1870,8 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
-        <v>19</v>
+      <c r="B18" t="s">
+        <v>82</v>
       </c>
       <c r="C18">
         <v>19</v>
@@ -1806,8 +1938,8 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19">
-        <v>15.74</v>
+      <c r="B19" t="s">
+        <v>83</v>
       </c>
       <c r="C19">
         <v>15.74</v>
@@ -1874,8 +2006,8 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
-        <v>17.32</v>
+      <c r="B20" t="s">
+        <v>84</v>
       </c>
       <c r="C20">
         <v>17.32</v>
@@ -1942,8 +2074,8 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
-        <v>18.9</v>
+      <c r="B21" t="s">
+        <v>85</v>
       </c>
       <c r="C21">
         <v>18.9</v>
@@ -2010,8 +2142,8 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22">
-        <v>12.98</v>
+      <c r="B22" t="s">
+        <v>86</v>
       </c>
       <c r="C22">
         <v>12.98</v>
@@ -2035,7 +2167,7 @@
         <v>-3.48</v>
       </c>
       <c r="J22">
-        <v>1.850487804878048</v>
+        <v>1.85</v>
       </c>
       <c r="K22">
         <v>-3.48</v>
@@ -2078,8 +2210,8 @@
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23">
-        <v>20.74</v>
+      <c r="B23" t="s">
+        <v>87</v>
       </c>
       <c r="C23">
         <v>20.74</v>
@@ -2146,8 +2278,8 @@
       <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24">
-        <v>18.72</v>
+      <c r="B24" t="s">
+        <v>88</v>
       </c>
       <c r="C24">
         <v>18.72</v>
@@ -2214,8 +2346,8 @@
       <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25">
-        <v>19.56</v>
+      <c r="B25" t="s">
+        <v>89</v>
       </c>
       <c r="C25">
         <v>19.56</v>
@@ -2282,8 +2414,8 @@
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26">
-        <v>21.52</v>
+      <c r="B26" t="s">
+        <v>90</v>
       </c>
       <c r="C26">
         <v>21.52</v>
@@ -2307,7 +2439,7 @@
         <v>1.61</v>
       </c>
       <c r="J26">
-        <v>1.850487804878048</v>
+        <v>1.85</v>
       </c>
       <c r="K26">
         <v>1.61</v>
@@ -2350,8 +2482,8 @@
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27">
-        <v>17.95</v>
+      <c r="B27" t="s">
+        <v>91</v>
       </c>
       <c r="C27">
         <v>17.95</v>
@@ -2408,7 +2540,7 @@
         <v>-1.47</v>
       </c>
       <c r="U27">
-        <v>-2.631190476190476</v>
+        <v>-2.63</v>
       </c>
       <c r="V27">
         <v>-1.47</v>
@@ -2418,8 +2550,8 @@
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28">
-        <v>13.13</v>
+      <c r="B28" t="s">
+        <v>92</v>
       </c>
       <c r="C28">
         <v>13.13</v>
@@ -2486,8 +2618,8 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29">
-        <v>15.41</v>
+      <c r="B29" t="s">
+        <v>93</v>
       </c>
       <c r="C29">
         <v>15.41</v>
@@ -2554,8 +2686,8 @@
       <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30">
-        <v>14.39</v>
+      <c r="B30" t="s">
+        <v>94</v>
       </c>
       <c r="C30">
         <v>14.39</v>
@@ -2579,7 +2711,7 @@
         <v>0.21</v>
       </c>
       <c r="J30">
-        <v>1.850487804878048</v>
+        <v>1.85</v>
       </c>
       <c r="K30">
         <v>0.22</v>
@@ -2609,21 +2741,21 @@
         <v>-3.75</v>
       </c>
       <c r="T30">
-        <v>-2.576904761904762</v>
+        <v>-2.58</v>
       </c>
       <c r="U30">
         <v>-3.75</v>
       </c>
       <c r="V30">
-        <v>-2.576904761904762</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B31">
-        <v>15.33</v>
+      <c r="B31" t="s">
+        <v>95</v>
       </c>
       <c r="C31">
         <v>15.33</v>
@@ -2690,8 +2822,8 @@
       <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="B32">
-        <v>18.2</v>
+      <c r="B32" t="s">
+        <v>96</v>
       </c>
       <c r="C32">
         <v>18.2</v>
@@ -2758,8 +2890,8 @@
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33">
-        <v>14.82</v>
+      <c r="B33" t="s">
+        <v>97</v>
       </c>
       <c r="C33">
         <v>14.82</v>
@@ -2768,7 +2900,7 @@
         <v>0.04</v>
       </c>
       <c r="E33">
-        <v>0.2413953488372093</v>
+        <v>0.24</v>
       </c>
       <c r="F33">
         <v>1.53</v>
@@ -2826,8 +2958,8 @@
       <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B34">
-        <v>16.22</v>
+      <c r="B34" t="s">
+        <v>98</v>
       </c>
       <c r="C34">
         <v>16.22</v>
@@ -2894,8 +3026,8 @@
       <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35">
-        <v>16.29</v>
+      <c r="B35" t="s">
+        <v>99</v>
       </c>
       <c r="C35">
         <v>16.29</v>
@@ -2962,8 +3094,8 @@
       <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B36">
-        <v>18.23</v>
+      <c r="B36" t="s">
+        <v>100</v>
       </c>
       <c r="C36">
         <v>18.23</v>
@@ -3030,8 +3162,8 @@
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37">
-        <v>15.37</v>
+      <c r="B37" t="s">
+        <v>101</v>
       </c>
       <c r="C37">
         <v>15.37</v>
@@ -3055,7 +3187,7 @@
         <v>0.26</v>
       </c>
       <c r="J37">
-        <v>1.850487804878048</v>
+        <v>1.85</v>
       </c>
       <c r="K37">
         <v>0.26</v>
@@ -3098,8 +3230,8 @@
       <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B38">
-        <v>13.73</v>
+      <c r="B38" t="s">
+        <v>102</v>
       </c>
       <c r="C38">
         <v>13.73</v>
@@ -3166,8 +3298,8 @@
       <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="B39">
-        <v>11.47</v>
+      <c r="B39" t="s">
+        <v>103</v>
       </c>
       <c r="C39">
         <v>11.47</v>
@@ -3197,7 +3329,7 @@
         <v>-1.16</v>
       </c>
       <c r="L39">
-        <v>12.54552631578947</v>
+        <v>12.55</v>
       </c>
       <c r="M39">
         <v>-1.16</v>
@@ -3234,8 +3366,8 @@
       <c r="A40" t="s">
         <v>60</v>
       </c>
-      <c r="B40">
-        <v>12.05</v>
+      <c r="B40" t="s">
+        <v>104</v>
       </c>
       <c r="C40">
         <v>12.05</v>
@@ -3265,7 +3397,7 @@
         <v>-0.77</v>
       </c>
       <c r="L40">
-        <v>12.54552631578947</v>
+        <v>12.55</v>
       </c>
       <c r="M40">
         <v>-0.77</v>
@@ -3302,8 +3434,8 @@
       <c r="A41" t="s">
         <v>61</v>
       </c>
-      <c r="B41">
-        <v>12.07</v>
+      <c r="B41" t="s">
+        <v>105</v>
       </c>
       <c r="C41">
         <v>12.07</v>
@@ -3370,8 +3502,8 @@
       <c r="A42" t="s">
         <v>62</v>
       </c>
-      <c r="B42">
-        <v>12.43</v>
+      <c r="B42" t="s">
+        <v>106</v>
       </c>
       <c r="C42">
         <v>12.43</v>
@@ -3401,7 +3533,7 @@
         <v>-0.39</v>
       </c>
       <c r="L42">
-        <v>12.54552631578947</v>
+        <v>12.55</v>
       </c>
       <c r="M42">
         <v>-0.39</v>
@@ -3438,14 +3570,14 @@
       <c r="A43" t="s">
         <v>63</v>
       </c>
-      <c r="B43">
-        <v>11.92</v>
+      <c r="B43" t="s">
+        <v>107</v>
       </c>
       <c r="C43">
         <v>11.92</v>
       </c>
       <c r="D43">
-        <v>2.015365853658536</v>
+        <v>2.02</v>
       </c>
       <c r="E43">
         <v>-0.02</v>
@@ -3469,7 +3601,7 @@
         <v>-0.01</v>
       </c>
       <c r="L43">
-        <v>12.54552631578947</v>
+        <v>12.55</v>
       </c>
       <c r="M43">
         <v>-0.01</v>
@@ -3490,30 +3622,30 @@
         <v>30.46</v>
       </c>
       <c r="S43">
-        <v>-2.604186046511628</v>
+        <v>-2.6</v>
       </c>
       <c r="T43">
-        <v>-2.576904761904762</v>
+        <v>-2.58</v>
       </c>
       <c r="U43">
-        <v>-2.631190476190476</v>
+        <v>-2.63</v>
       </c>
       <c r="V43">
-        <v>-2.576904761904762</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>64</v>
       </c>
-      <c r="B44">
-        <v>12.41</v>
+      <c r="B44" t="s">
+        <v>108</v>
       </c>
       <c r="C44">
         <v>12.41</v>
       </c>
       <c r="D44">
-        <v>2.015365853658536</v>
+        <v>2.02</v>
       </c>
       <c r="E44">
         <v>0.14</v>
@@ -3537,7 +3669,7 @@
         <v>0.86</v>
       </c>
       <c r="L44">
-        <v>12.54552631578947</v>
+        <v>12.55</v>
       </c>
       <c r="M44">
         <v>0.86</v>
@@ -3574,14 +3706,14 @@
       <c r="A45" t="s">
         <v>65</v>
       </c>
-      <c r="B45">
-        <v>13.57</v>
+      <c r="B45" t="s">
+        <v>109</v>
       </c>
       <c r="C45">
         <v>13.57</v>
       </c>
       <c r="D45">
-        <v>2.015365853658536</v>
+        <v>2.02</v>
       </c>
       <c r="E45">
         <v>0.02</v>
@@ -3605,7 +3737,7 @@
         <v>0.27</v>
       </c>
       <c r="L45">
-        <v>12.54552631578947</v>
+        <v>12.55</v>
       </c>
       <c r="M45">
         <v>0.27</v>
@@ -3642,14 +3774,14 @@
       <c r="A46" t="s">
         <v>66</v>
       </c>
-      <c r="B46">
-        <v>8.85</v>
+      <c r="B46" t="s">
+        <v>110</v>
       </c>
       <c r="C46">
         <v>8.85</v>
       </c>
       <c r="D46">
-        <v>2.015365853658536</v>
+        <v>2.02</v>
       </c>
       <c r="E46">
         <v>6.65</v>
@@ -3673,7 +3805,7 @@
         <v>0.25</v>
       </c>
       <c r="L46">
-        <v>12.54552631578947</v>
+        <v>12.55</v>
       </c>
       <c r="M46">
         <v>0.25</v>
@@ -3682,7 +3814,7 @@
         <v>0.25</v>
       </c>
       <c r="O46">
-        <v>-0.6688636363636363</v>
+        <v>-0.67</v>
       </c>
       <c r="P46">
         <v>0.25</v>
